--- a/biology/Botanique/Alphitonia/Alphitonia.xlsx
+++ b/biology/Botanique/Alphitonia/Alphitonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphitonia est un genre de plantes à fleurs de la famille des Rhamnaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèce du genre Alphitonia sont généralement des arbustes ou de grands arbres.
 Les feuilles coriaces lancéolées sont alternes, d'environ 12 centimètres de long. Les marges sont lisses. Les veines sont pennées. Les feuilles ont des trichomes complexes blancs à rouillés sur la surface inférieure. Le pétiole mesure moins du quart de la longueur d'une lame. Des stipules sont présents.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphitonia se trouve dans les régions tropicales de l'Asie du Sud-Est, de l'Océanie et de la Polynésie.
 </t>
@@ -575,7 +591,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alphitonia carolinensis 
 Alphitonia excelsa (Fenzl) Reissek ex Benth.
@@ -620,7 +638,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces d'Alphitonia servent de nourriture à la chenille du papillon de nuit Aenetus mirabilis qui ne se nourrit que de ce genre. Elle creuse horizontalement dans le tronc, puis verticalement vers le bas.
 </t>
@@ -651,7 +671,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Alphitonia » (voir la liste des auteurs).</t>
         </is>
